--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-WebApp-RasiPhalau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0041B1-1BCF-4087-B373-0CED22DF7149}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B44C7A-B236-47AA-BF28-49550433747A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F7E269C-0401-4F9A-B396-B01173B1F2D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Bengali" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>URL</t>
   </si>
@@ -72,13 +72,49 @@
   </si>
   <si>
     <t>http://www.astrosage.com/bengali/rashifal/meen-rashifal.asp</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-RasiPhalau/master/Mesha.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-RasiPhalau/master/Vrusha.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-RasiPhalau/master/Mithuna.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-RasiPhalau/master/Kataka.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-RasiPhalau/master/Simha.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-RasiPhalau/master/Kanya.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-RasiPhalau/master/Tula.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-RasiPhalau/masterVrushchika.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-RasiPhalau/master/Dhanusu.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-RasiPhalau/master/Makara.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-RasiPhalau/master/Kumba.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-RasiPhalau/master/Meena.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +142,12 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,10 +170,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -447,15 +495,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E520A6-B6CD-4558-97CE-36A2BAE21ED8}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -468,75 +516,109 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -555,5 +637,6 @@
     <hyperlink ref="B13" r:id="rId12" xr:uid="{EBDCEB40-E4AC-4996-A721-F3E0AAC71911}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,12 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-WebApp-RasiPhalau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B44C7A-B236-47AA-BF28-49550433747A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F9C023-E3CA-4067-96E6-2CF9D1A1EE23}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F7E269C-0401-4F9A-B396-B01173B1F2D6}"/>
+    <workbookView xWindow="1425" yWindow="3585" windowWidth="21600" windowHeight="11385" xr2:uid="{6F7E269C-0401-4F9A-B396-B01173B1F2D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bengali" sheetId="2" r:id="rId1"/>
+    <sheet name="Napali" sheetId="11" r:id="rId1"/>
+    <sheet name="Hindi" sheetId="10" r:id="rId2"/>
+    <sheet name="Urdu" sheetId="9" r:id="rId3"/>
+    <sheet name="Malayalam" sheetId="8" r:id="rId4"/>
+    <sheet name="Marati" sheetId="7" r:id="rId5"/>
+    <sheet name="Gujarati" sheetId="6" r:id="rId6"/>
+    <sheet name="Kannada" sheetId="5" r:id="rId7"/>
+    <sheet name="Tamil" sheetId="4" r:id="rId8"/>
+    <sheet name="Telugu" sheetId="3" r:id="rId9"/>
+    <sheet name="Bengali" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="134">
   <si>
     <t>URL</t>
   </si>
@@ -108,13 +117,337 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-RasiPhalau/master/Meena.png</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/telugu/rasi-phalalu/mesha-rasi-phalalu.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/telugu/rasi-phalalu/vrusha-rasi-phalalu.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/telugu/rasi-phalalu/mithuna-rasi-phalalu.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/telugu/rasi-phalalu/kataka-rasi-phalalu.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/telugu/rasi-phalalu/simha-rasi-phalalu.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/telugu/rasi-phalalu/kanya-rasi-phalalu.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/telugu/rasi-phalalu/tula-rasi-phalalu.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/telugu/rasi-phalalu/vrushchika-rasi-phalalu.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/telugu/rasi-phalalu/dhanusu-rasi-phalalu.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/telugu/rasi-phalalu/makara-rasi-phalalu.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/telugu/rasi-phalalu/kumbha-rasi-phalalu.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/telugu/rasi-phalalu/meena-rasi-phalalu.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/tamil/rasi-palan/mesham-rasi-palan.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/tamil/rasi-palan/rishabam-rasi-palan.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/tamil/rasi-palan/midhunam-rasi-palan.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/tamil/rasi-palan/kadagam-rasi-palan.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/tamil/rasi-palan/simmam-rasi-palan.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/tamil/rasi-palan/kanni-rasi-palan.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/tamil/rasi-palan/thulaam-rasi-palan.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/tamil/rasi-palan/viruchigam-rasi-palan.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/tamil/rasi-palan/dhanusu-rasi-palan.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/tamil/rasi-palan/magaram-rasi-palan.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/tamil/rasi-palan/kumbam-rasi-palan.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/tamil/rasi-palan/meenam-rasi-palan.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/kannada/rashi-bhavishya/mesha-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/kannada/rashi-bhavishya/vrushabha-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/kannada/rashi-bhavishya/mithuna-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/kannada/rashi-bhavishya/karka-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/kannada/rashi-bhavishya/simha-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/kannada/rashi-bhavishya/kanya-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/kannada/rashi-bhavishya/tula-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/kannada/rashi-bhavishya/vrushchika-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/kannada/rashi-bhavishya/dhanu-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/kannada/rashi-bhavishya/makara-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/kannada/rashi-bhavishya/kumbha-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/kannada/rashi-bhavishya/meena-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/gujarati/rashi-bhavishya/mesh-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/gujarati/rashi-bhavishya/vrushabh-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/gujarati/rashi-bhavishya/mithun-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/gujarati/rashi-bhavishya/kark-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/gujarati/rashi-bhavishya/singh-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/gujarati/rashi-bhavishya/kanya-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/gujarati/rashi-bhavishya/tula-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/gujarati/rashi-bhavishya/vrushchik-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/gujarati/rashi-bhavishya/dhanu-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/gujarati/rashi-bhavishya/makar-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/gujarati/rashi-bhavishya/kumbh-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/gujarati/rashi-bhavishya/meen-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/marathi/rashi-bhavishya/mesh-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/marathi/rashi-bhavishya/vrishabha-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/marathi/rashi-bhavishya/mithun-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/marathi/rashi-bhavishya/karka-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/marathi/rashi-bhavishya/simha-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/marathi/rashi-bhavishya/kanya-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/marathi/rashi-bhavishya/tula-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/marathi/rashi-bhavishya/vrishchika-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/marathi/rashi-bhavishya/dhanu-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/marathi/rashi-bhavishya/makara-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/marathi/rashi-bhavishya/kumbha-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/marathi/rashi-bhavishya/meena-rashi-bhavishya.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/malayalam/rasi/metam-rasi.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/malayalam/rasi/itavam-rasi.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/malayalam/rasi/mithunam-rasi.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/malayalam/rasi/karkkatakam-rasi.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/malayalam/rasi/cinnam-rasi.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/malayalam/rasi/kanni-rasi.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/malayalam/rasi/tulam-rasi.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/malayalam/rasi/vrscikam-rasi.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/malayalam/rasi/dhanu-rasi.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/malayalam/rasi/makaram-rasi.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/malayalam/rasi/kumbham-rasi.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/malayalam/rasi/minam-rasi.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/urdu/zaicha/hamal-zaicha.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/urdu/zaicha/soor-zaicha.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/urdu/zaicha/jauza-zaicha.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/urdu/zaicha/sartan-zaicha.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/urdu/zaicha/asad-zaicha.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/urdu/zaicha/sumbla-zaicha.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/urdu/zaicha/meezan-zaicha.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/urdu/zaicha/aqrab-zaicha.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/urdu/zaicha/quas-zaicha.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/urdu/zaicha/jadi-zaicha.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/urdu/zaicha/dilo-zaicha.asp</t>
+  </si>
+  <si>
+    <t>http://www.astrosage.com/urdu/zaicha/haut-zaicha.asp</t>
+  </si>
+  <si>
+    <t>http://hindi.astrosage.com/rashifal/mesh-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://hindi.astrosage.com/rashifal/vrishabha-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://hindi.astrosage.com/rashifal/mithun-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://hindi.astrosage.com/rashifal/karka-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://hindi.astrosage.com/rashifal/singh-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://hindi.astrosage.com/rashifal/kanya-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://hindi.astrosage.com/rashifal/tula-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://hindi.astrosage.com/rashifal/vrishchika-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://hindi.astrosage.com/rashifal/dhanu-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://hindi.astrosage.com/rashifal/makara-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://hindi.astrosage.com/rashifal/kumbha-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://hindi.astrosage.com/rashifal/meena-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://astrosage.com/nepali/rashifal/mesh-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://astrosage.com/nepali/rashifal/vrishabha-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://astrosage.com/nepali/rashifal/mithun-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://astrosage.com/nepali/rashifal/karkat-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://astrosage.com/nepali/rashifal/simha-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://astrosage.com/nepali/rashifal/kanya-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://astrosage.com/nepali/rashifal/tula-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://astrosage.com/nepali/rashifal/vrishchika-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://astrosage.com/nepali/rashifal/dhanu-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://astrosage.com/nepali/rashifal/makara-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://astrosage.com/nepali/rashifal/kumbha-rashifal.asp</t>
+  </si>
+  <si>
+    <t>http://astrosage.com/nepali/rashifal/meen-rashifal.asp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +481,10 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -170,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -180,6 +517,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -494,11 +832,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F480CFD2-0B5B-495F-9646-8323188D24C2}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E5F76249-3D00-4292-9FBC-7B720120569F}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{788E677C-2021-4B91-8D4D-D5BF8C2C3146}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{E22F2BBB-EE5D-4720-94A9-12F73334034A}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{5D599BC4-4AB4-44D3-BC01-155507771A75}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{662B7156-8390-49B3-B56A-A74D5BFCE182}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{A8D234EE-9CA3-4AB0-A04B-7A2F53FD2BE4}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{D779456E-B56B-4734-9C46-1532345F85E5}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{9848EA28-6ABA-4951-8542-29DB2073ED5E}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{20FD2E00-8D8A-469D-A89E-8A78080D45A0}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{EAD4A285-75E6-4AF3-ABB4-E98522D23521}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{83A0D7E9-2DA1-40B4-A66C-65FAF1D023DB}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{9E1928B5-D920-4D6A-AFF9-3AFBFB83E6AA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E520A6-B6CD-4558-97CE-36A2BAE21ED8}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,4 +1124,1179 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B767F6A6-9E41-46FD-95C0-373F3D9E44EE}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{12EB5DCC-89CB-44E0-8B64-4C4E8CA538CD}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{EB26709B-C3D9-45BB-A9DB-1EF0D2954FBC}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{59E64C7B-6A6E-4A78-8C70-FF610B09BD78}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{48944C2C-B1F0-451B-B593-6F7E1CC6C950}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{9A8853A2-B049-4C39-A17D-C41C27087734}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{B97BA1B0-E8AE-4B56-98D9-AD017504B09E}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{7F8A8644-938D-4B5B-A28C-7E1BA61E9A6E}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{DCA2E294-507C-404E-855A-3D6F1122B9A4}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{BBAA977A-CFFD-468B-BD16-6AF77F6F55D6}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{93496781-9E1C-4179-8B89-026B2BB81D3B}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{3D1A985F-E891-4339-BC62-7D34789F134B}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{9B519B4E-976B-48AB-B7AF-E0416C5E3BDF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8318A253-047F-4CE4-B279-67376C984048}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{CE690211-A2A3-496F-87DF-D817FFEB251B}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{D90C4BB3-A56E-41D9-A133-DDAFF02FFBEA}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{223C420C-60C2-4A7C-9606-957AA325F4CC}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{CDC62109-2740-43FD-A7E2-CE836AF0D0A4}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{B07C6ABF-E7C3-478F-BA21-6E77A1A84454}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{8C401065-54C2-4894-BB5B-0AD7C3102F57}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{896716C0-CEEA-4B81-A5FE-73349DAE2272}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{16CF6FB9-0255-458B-8C6F-3FBB30242861}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{E521A993-0038-4FE3-AF83-93B318642670}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{C60BFAE3-5791-41E9-9D01-06B990DA03AF}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{8FF2FBAE-F448-4D57-A068-AFEE9BE4626D}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{FCA6B4FB-C5DE-4E2D-A287-3AB753F6DA28}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FADF38-C72B-453A-AC35-145F0C278054}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F221006F-8C22-45AF-931B-39302F1D63B6}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{845E1C20-7124-4689-B921-1DB53D5BA283}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{88FCB196-B958-47FB-9A7E-B0D5958BD6C0}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{564D7B1F-92E2-4BE3-B27B-A93AB5B5B23D}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{C95E226C-203C-446B-B9DE-20650036705A}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{DF68E98F-FDF9-4037-BB1B-876E5823DE5D}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{E41A4162-CF23-48B4-A091-D04842B49949}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{B3D3639D-2330-42C3-8219-E78F1817EE28}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{77C028C1-1E86-4FC0-944F-2A55D685983A}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{6EA81CEB-E173-4EBA-919D-1E0E5891F74D}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{72E40709-E398-48CB-8E83-2559ABAB112B}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{A690827F-30E3-474A-9F63-CF31BA168D9A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F293E69-695A-4784-BFC7-0B43EF0ADDDE}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{294BCF42-F0E6-4934-AA20-E06CBF837476}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{54B2F706-15D4-4A10-A24B-7C6F61C00A16}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{1BB5E627-1660-489F-BCFE-035A6E7F9E72}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{288CB489-B053-46FE-A336-86E770269264}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{98342C2C-7133-4EBC-A6A9-6CF9971030A9}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{8A0DC71F-198F-4944-96FD-73478B4FF60E}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{46CBC1BD-FC82-454F-A1D0-C38EDC51B7C3}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{3E7D67FD-0925-4234-A6E8-87F620E539F9}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{E18314D5-4283-47D8-B39D-4295F8D1F754}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{9CCED335-84B4-4D0A-97B4-41AE95EF93B7}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{2C4969BA-3E08-469F-A120-11E10FA72DEB}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{51A66E5D-CC27-429C-8812-B6B75F39AC0E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79C3305-887E-4CC6-A06A-B52857A1AA4B}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{DE9C3C6B-4F23-4443-9504-E46ECCBB6AC6}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{695D2277-8516-40B6-93DC-A852502AF66C}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{51F1E126-E141-433C-8BCD-CCC96C17EF15}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{93A98121-399F-452C-904E-4B29D7CF8EB4}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{71C64952-F9CF-4C30-8D3F-E68ACA1B01B4}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{3CB278CF-7271-4D84-BAA5-0FB7FAA4754F}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{5906CE76-7441-4859-8FAA-EE349BA16FFB}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{6B1CC697-5560-4793-B619-17434EBD85FE}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{CC09A6E5-EAE4-4117-B2C6-2F7A203B5B8E}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{5475F215-B31E-4824-ABE4-BE8A79D6383E}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{EF91F31D-869D-4944-B166-D4ACB099DA2E}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{19344B85-277B-4EDB-A186-898C0B5418CD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C17E05C-C133-4209-AC4B-E77E2152AA61}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{FF57BB95-8BD5-454A-9C31-B585EDE7E2ED}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{B9BB4B5D-9584-4777-BAC9-4FFB05BF2D60}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{882335A4-01D0-47BF-BD8D-9AFE30ABA5F5}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{D9B7135B-D3A7-4302-95FE-25DE3325F547}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{6E77E679-237E-450B-B897-15879F0CCE44}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{F76A0D26-8453-4A7A-883A-7707EAE306E7}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{D30F3BEA-E5E6-4292-850C-DF9F1373531C}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{850F72B9-6950-4DB9-80E0-6AC8884DB5E4}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{B92839AB-16A0-4836-9DDC-4948C32ACE3A}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{0925C1D1-7178-49CF-AD2D-4CE2F411F3B4}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{FB3CD251-B5C9-45E4-BBBC-91F71CC06A52}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{EC217455-137D-4FD6-958C-4C1F2D7F02CC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8E2318-499C-4D22-9EFB-2436087A2025}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{021702DF-3706-4580-BA40-2E824FB3BC2E}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{7891E7C3-6C3B-4E85-B6C2-22779B159F80}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{027E356D-3C50-4F1C-802D-13F19641D8F4}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{4FA277FF-B049-44E7-BE6C-261599AA1B32}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{553FFF86-2207-4BAC-AF4C-92ADB6FA0B2A}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{93CA8C99-3370-44B5-A9A4-11AB8FF57071}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{14FCF7C7-5AD9-468B-8548-726606FDCDFE}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{D4F17A73-A40E-45E5-B8C6-7375282D1505}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{F311152D-151F-49AC-A275-B0D60FA10ADB}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{3BB0DD06-64D4-4E8D-AC05-82347CB264C4}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{BB25A1CD-E46D-4491-89F6-77BBBC4A5A6F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B63253-81B7-47DF-8D71-DC3D653AA221}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{28AFE4F9-F524-482B-9F5E-E88927B760D4}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{7CE8B783-8693-4D3C-9D56-2474BDD5AA40}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{410CED63-5329-49AB-BF5D-AB74FB9FCEEC}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{3D365662-EA14-443D-8497-67F271C9DA60}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{5CDC51AE-1A64-4B08-8752-C194B0581140}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{E1166FE9-04BB-40A9-BFD8-ED38BA1C41EC}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{6713B6C4-68A7-4DF2-91A0-4F4CA07132C0}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{CA634D5D-B3C4-4025-9AA4-F5263276E231}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{F98E0231-F676-40D9-ACEC-A02835775F51}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{4296ED5D-BF1B-46BE-881A-C2A22CA13BC6}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{1257C27F-DDD9-49C0-A3EE-9D1C4E9F712F}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{F1221095-ECD7-4F4E-8851-FD4F80990D09}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+</worksheet>
 </file>